--- a/targets/RVE_1_40_D/DB/param_info/param_info.xlsx
+++ b/targets/RVE_1_40_D/DB/param_info/param_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="89">
   <si>
     <t>DB1</t>
   </si>
@@ -52,6 +52,12 @@
     <t>exponent</t>
   </si>
   <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
     <t>notes</t>
   </si>
   <si>
@@ -64,24 +70,30 @@
     <t>(fitting parameter) critical minimum dipole distance</t>
   </si>
   <si>
+    <t>dipmin</t>
+  </si>
+  <si>
+    <t>large_hardening</t>
+  </si>
+  <si>
+    <t>(0-30]</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>e0</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>large values can cause nonconvergence</t>
+  </si>
+  <si>
     <t>dipole</t>
   </si>
   <si>
-    <t>large_hardening</t>
-  </si>
-  <si>
-    <t>(0-30]</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>e0</t>
-  </si>
-  <si>
-    <t>large values can cause nonconvergence</t>
-  </si>
-  <si>
     <t>(fitting parameter) dislocation mean free path</t>
   </si>
   <si>
@@ -91,6 +103,9 @@
     <t>[1-1000]</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
     <t>(fitting parameter) climbing activation atomic volume</t>
   </si>
   <si>
@@ -106,7 +121,7 @@
     <t>p</t>
   </si>
   <si>
-    <t>small_yielding</t>
+    <t>yielding</t>
   </si>
   <si>
     <t>(0-1]</t>
@@ -128,9 +143,6 @@
   </si>
   <si>
     <t>tausol</t>
-  </si>
-  <si>
-    <t>large_yielding</t>
   </si>
   <si>
     <t>(0-500]</t>
@@ -318,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -334,6 +346,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -649,36 +664,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="68.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="58.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="68.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="58.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -691,29 +708,31 @@
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -743,1241 +762,1355 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="4" t="s">
+      <c r="U2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>14</v>
+      <c r="Y2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>0.01</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2">
         <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" s="2">
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="2">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>45</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" s="2">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2">
         <v>0.01</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
         <v>4</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="X5" s="2">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="2">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <v>0.001</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>0.8</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="2">
+        <v>23</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2">
         <v>0.05</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="O6" s="2"/>
+      <c r="P6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="2">
         <v>0.05</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="S6" s="1"/>
+      <c r="T6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="2">
         <v>0.05</v>
       </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="2">
+      <c r="W6" s="1"/>
+      <c r="X6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
         <v>0.001</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <v>1.5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="2">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2">
         <v>0.05</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="O7" s="2"/>
+      <c r="P7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="2">
         <v>0.05</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="2">
+      <c r="S7" s="1"/>
+      <c r="T7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="2">
         <v>0.05</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="W7" s="1"/>
+      <c r="X7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2">
         <v>0.1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2">
         <v>55</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="2">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="2">
         <v>0.05</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="O8" s="2"/>
+      <c r="P8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="2">
         <v>0.05</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="2">
+      <c r="S8" s="1"/>
+      <c r="T8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="2">
         <v>0.05</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="W8" s="1"/>
+      <c r="X8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>0.001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="X9" s="2">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E10" s="2">
         <v>0.001</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10" s="2">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="2">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="2">
         <v>0.1</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="O11" s="2"/>
+      <c r="P11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="S11" s="1"/>
+      <c r="T11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="2">
         <v>0.1</v>
       </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X11" s="2">
+      <c r="W11" s="1"/>
+      <c r="X11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z11" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E12" s="2">
         <v>0.001</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="X12" s="2">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z12" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2">
         <v>0.001</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="X13" s="2">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z13" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2">
         <v>0.001</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="X14" s="2">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z14" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="X15" s="2">
+        <v>23</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z15" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2">
         <v>0.01</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="X16" s="2">
+        <v>69</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z16" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2">
         <v>0.1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2">
         <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="X17" s="2">
+        <v>23</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2">
         <v>0.01</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2">
         <v>0.8361</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="2">
         <v>0.001</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="O18" s="4"/>
+      <c r="P18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18" s="2">
         <v>0.001</v>
       </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T18" s="2">
+      <c r="S18" s="1"/>
+      <c r="T18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V18" s="2">
         <v>0.001</v>
       </c>
-      <c r="U18" s="1"/>
-      <c r="V18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X18" s="2">
+      <c r="W18" s="1"/>
+      <c r="X18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z18" s="2">
         <v>0.001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2">
         <v>0.001</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2">
         <v>1.876</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="2">
+        <v>23</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" s="2">
         <v>0.001</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" s="2">
         <v>0.001</v>
       </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T19" s="2">
+      <c r="S19" s="1"/>
+      <c r="T19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V19" s="2">
         <v>0.001</v>
       </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="X19" s="2">
+      <c r="W19" s="1"/>
+      <c r="X19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z19" s="2">
         <v>0.001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2">
         <v>0.01</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G20" s="2">
         <v>6.23</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="2">
+        <v>88</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R20" s="2">
         <v>0</v>
       </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="T20" s="2">
+      <c r="S20" s="1"/>
+      <c r="T20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" s="2">
         <v>0</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X20" s="2">
+      <c r="W20" s="1"/>
+      <c r="X20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z20" s="2">
         <v>0</v>
       </c>
     </row>

--- a/targets/RVE_1_40_D/DB/param_info/param_info.xlsx
+++ b/targets/RVE_1_40_D/DB/param_info/param_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
   <si>
     <t>description</t>
   </si>
@@ -97,7 +97,7 @@
     <t>dipmin</t>
   </si>
   <si>
-    <t>large_hardening</t>
+    <t>linear_hardening</t>
   </si>
   <si>
     <t>(0-30]</t>
@@ -184,28 +184,31 @@
     <t>D0</t>
   </si>
   <si>
+    <t>(0-10]</t>
+  </si>
+  <si>
+    <t>e-4</t>
+  </si>
+  <si>
+    <t>(interaction coefficient) same slip planes, same slip directions</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>nonlinear_hardening</t>
+  </si>
+  <si>
+    <t>(0-2]</t>
+  </si>
+  <si>
+    <t>(interaction coefficient) same slip planes, different slip directions</t>
+  </si>
+  <si>
+    <t>coplanar</t>
+  </si>
+  <si>
     <t>small_hardening</t>
-  </si>
-  <si>
-    <t>(0-10]</t>
-  </si>
-  <si>
-    <t>e-4</t>
-  </si>
-  <si>
-    <t>(interaction coefficient) same slip planes, same slip directions</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>(0-2]</t>
-  </si>
-  <si>
-    <t>(interaction coefficient) same slip planes, different slip directions</t>
-  </si>
-  <si>
-    <t>coplanar</t>
   </si>
   <si>
     <t>(interaction coefficient) different slip planes, same slip directions</t>
@@ -300,22 +303,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -631,15 +634,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="68.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="68.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="9" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="16.433571428571426" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -653,29 +656,29 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -685,29 +688,29 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>0.001</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>0.8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="J2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -717,29 +720,29 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>0.001</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>1.5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -749,25 +752,25 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>0.1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>55</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>2</v>
       </c>
     </row>
@@ -781,25 +784,25 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>0.01</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>2</v>
       </c>
     </row>
@@ -813,25 +816,25 @@
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>45</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>2</v>
       </c>
     </row>
@@ -845,29 +848,29 @@
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>0.01</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>4</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -877,29 +880,29 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="J8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -909,29 +912,29 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>0.01</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="J9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -941,29 +944,29 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>0.1</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="J10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -973,29 +976,29 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>0.01</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>0.8361</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -1005,29 +1008,29 @@
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>0.001</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>1.876</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1035,59 +1038,59 @@
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="6">
+        <v>6.23</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6.23</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>0.001</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1099,155 +1102,155 @@
         <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>0.001</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>1</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="6">
         <v>0.01</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="6">
         <v>1</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
         <v>0.001</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="6">
         <v>1</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="3">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="6">
         <v>0.001</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="6">
         <v>1</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>0.001</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="6">
         <v>1</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>2</v>
       </c>
     </row>

--- a/targets/RVE_1_40_D/DB/param_info/param_info.xlsx
+++ b/targets/RVE_1_40_D/DB/param_info/param_info.xlsx
@@ -43,7 +43,7 @@
     <t>effect</t>
   </si>
   <si>
-    <t>base</t>
+    <t>power</t>
   </si>
   <si>
     <t>(fitting parameter) p-exponent in glide velocity</t>
@@ -246,7 +246,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,12 +257,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -294,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -307,9 +301,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -634,16 +625,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="68.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="68.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -691,13 +682,13 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.001</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0.8</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -706,7 +697,7 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>2</v>
       </c>
     </row>
@@ -723,13 +714,13 @@
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.001</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>1.5</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -738,7 +729,7 @@
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>2</v>
       </c>
     </row>
@@ -755,13 +746,13 @@
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.1</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>55</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -770,7 +761,7 @@
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>2</v>
       </c>
     </row>
@@ -787,13 +778,13 @@
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.01</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>7</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -802,7 +793,7 @@
       <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>2</v>
       </c>
     </row>
@@ -819,13 +810,13 @@
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>45</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -834,7 +825,7 @@
       <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
     </row>
@@ -851,13 +842,13 @@
       <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.01</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -866,7 +857,7 @@
       <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>2</v>
       </c>
     </row>
@@ -883,13 +874,13 @@
       <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -898,7 +889,7 @@
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>2</v>
       </c>
     </row>
@@ -915,13 +906,13 @@
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.01</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -930,7 +921,7 @@
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>2</v>
       </c>
     </row>
@@ -947,13 +938,13 @@
       <c r="D10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.1</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>10</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -962,7 +953,7 @@
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>2</v>
       </c>
     </row>
@@ -979,13 +970,13 @@
       <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.01</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>0.8361</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -994,7 +985,7 @@
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1011,13 +1002,13 @@
       <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.001</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>1.876</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -1026,7 +1017,7 @@
       <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1043,13 +1034,13 @@
       <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.01</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>6.23</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -1058,7 +1049,7 @@
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1075,13 +1066,13 @@
       <c r="D14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.001</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -1090,7 +1081,7 @@
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1107,13 +1098,13 @@
       <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.001</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1122,7 +1113,7 @@
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1139,13 +1130,13 @@
       <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0.01</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>1</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1154,7 +1145,7 @@
       <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1171,13 +1162,13 @@
       <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>0.001</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -1186,7 +1177,7 @@
       <c r="I17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1203,13 +1194,13 @@
       <c r="D18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>0.001</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>1</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -1218,7 +1209,7 @@
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1235,13 +1226,13 @@
       <c r="D19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>0.001</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>1</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -1250,7 +1241,7 @@
       <c r="I19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>2</v>
       </c>
     </row>

--- a/targets/RVE_1_40_D/DB/param_info/param_info.xlsx
+++ b/targets/RVE_1_40_D/DB/param_info/param_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
   <si>
     <t>description</t>
   </si>
@@ -82,7 +82,7 @@
     <t>tausol</t>
   </si>
   <si>
-    <t>(0-500]</t>
+    <t>[1-200]</t>
   </si>
   <si>
     <t>yes</t>
@@ -100,30 +100,27 @@
     <t>linear_hardening</t>
   </si>
   <si>
+    <t>(0-10]</t>
+  </si>
+  <si>
+    <t>(fitting parameter) dislocation mean free path</t>
+  </si>
+  <si>
+    <t>islip</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>(fitting parameter) climbing activation atomic volume</t>
+  </si>
+  <si>
+    <t>omega</t>
+  </si>
+  <si>
     <t>(0-30]</t>
   </si>
   <si>
-    <t>(fitting parameter) dislocation mean free path</t>
-  </si>
-  <si>
-    <t>islip</t>
-  </si>
-  <si>
-    <t>[1-1000]</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>(fitting parameter) climbing activation atomic volume</t>
-  </si>
-  <si>
-    <t>omega</t>
-  </si>
-  <si>
-    <t>(0-50]</t>
-  </si>
-  <si>
     <t>(microstructure parameter) dipole dislocation density</t>
   </si>
   <si>
@@ -184,7 +181,7 @@
     <t>D0</t>
   </si>
   <si>
-    <t>(0-10]</t>
+    <t>(0-200]</t>
   </si>
   <si>
     <t>e-4</t>
@@ -808,7 +805,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -823,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="5">
         <v>2</v>
@@ -831,16 +828,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5">
         <v>0.01</v>
@@ -863,16 +860,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -895,16 +892,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5">
         <v>0.01</v>
@@ -916,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
@@ -927,16 +924,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5">
         <v>0.1</v>
@@ -948,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
@@ -959,16 +956,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5">
         <v>0.01</v>
@@ -980,7 +977,7 @@
         <v>0.8361</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
@@ -991,16 +988,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5">
         <v>0.001</v>
@@ -1012,7 +1009,7 @@
         <v>1.876</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>16</v>
@@ -1023,16 +1020,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5">
         <v>0.01</v>
@@ -1044,7 +1041,7 @@
         <v>6.23</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>16</v>
@@ -1055,16 +1052,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E14" s="5">
         <v>0.001</v>
@@ -1087,16 +1084,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5">
         <v>0.001</v>
@@ -1119,16 +1116,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E16" s="5">
         <v>0.01</v>
@@ -1151,16 +1148,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5">
         <v>0.001</v>
@@ -1183,16 +1180,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E18" s="5">
         <v>0.001</v>
@@ -1215,16 +1212,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="5">
         <v>0.001</v>
